--- a/docs/Precedence_table.xlsx
+++ b/docs/Precedence_table.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="Precedence table" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Precedence table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,70 +24,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="18">
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,22 +93,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
@@ -115,14 +101,14 @@
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <name val="Arial Black"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Black"/>
@@ -130,7 +116,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,112 +147,78 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -325,28 +277,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF79BC"/>
+      <color rgb="FFFF158A"/>
+      <color rgb="FFFFB3D9"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="4.82186234817814"/>
+    <col min="1" max="1025" width="4.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -400,7 +665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -456,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -512,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -568,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -624,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -672,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -720,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -768,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -816,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -868,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -920,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -966,13 +1231,15 @@
       <c r="O12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="10"/>
+      <c r="P12" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="Q12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1016,13 +1283,15 @@
       <c r="O13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="10"/>
+      <c r="P13" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1186,11 +1455,11 @@
       <c r="Q16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R16" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1234,13 +1503,15 @@
       <c r="O17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="10"/>
+      <c r="P17" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1293,12 +1564,7 @@
       <c r="R18" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Precedence_table.xlsx
+++ b/docs/Precedence_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="34">
   <si>
     <t xml:space="preserve">+</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">E → !E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolop</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,13 +186,21 @@
     <font>
       <b val="true"/>
       <sz val="15"/>
+      <color rgb="FF00CC33"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
       <color rgb="FFFF3333"/>
       <name val="Arial Black"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,13 +222,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF33"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,11 +328,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,7 +362,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -344,7 +373,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -396,17 +425,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.55"/>
   <cols>
-    <col collapsed="false" hidden="false" max="21" min="1" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="38.0040485829959"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="21" min="1" style="1" width="4.78542510121457"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="4.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,6 +491,24 @@
       <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -522,6 +569,22 @@
       <c r="V2" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -590,10 +653,12 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
+      <c r="AF3" s="0"/>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="8"/>
+      <c r="AK3" s="0"/>
       <c r="AL3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,10 +728,12 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
+      <c r="AF4" s="0"/>
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="8"/>
+      <c r="AK4" s="0"/>
       <c r="AL4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,10 +803,12 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
+      <c r="AF5" s="0"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="8"/>
+      <c r="AK5" s="0"/>
       <c r="AL5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,10 +870,12 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
+      <c r="AF6" s="0"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="8"/>
+      <c r="AK6" s="0"/>
       <c r="AL6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,12 +928,21 @@
       <c r="V7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
+      <c r="AF7" s="0"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="8"/>
+      <c r="AK7" s="0"/>
       <c r="AL7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,12 +995,21 @@
       <c r="V8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
+      <c r="AF8" s="0"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="8"/>
+      <c r="AK8" s="0"/>
       <c r="AL8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,12 +1062,21 @@
       <c r="V9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
+      <c r="AF9" s="0"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="8"/>
+      <c r="AK9" s="0"/>
       <c r="AL9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,8 +1107,12 @@
       <c r="I10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="L10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1035,12 +1137,21 @@
       <c r="V10" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
+      <c r="AF10" s="0"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="8"/>
+      <c r="AK10" s="0"/>
       <c r="AL10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,8 +1182,12 @@
       <c r="I11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="L11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1097,10 +1212,21 @@
       <c r="V11" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="8"/>
+      <c r="AK11" s="0"/>
       <c r="AL11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,7 +1266,7 @@
       <c r="L12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -1159,10 +1285,21 @@
       <c r="V12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="8"/>
+      <c r="AK12" s="0"/>
       <c r="AL12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,9 +1356,22 @@
       <c r="V13" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AF13" s="0"/>
+      <c r="AG13" s="0"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
+      <c r="AK13" s="0"/>
+      <c r="AL13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -1290,10 +1440,12 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
+      <c r="AF14" s="0"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
+      <c r="AK14" s="0"/>
       <c r="AL14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,8 +1729,15 @@
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
-      <c r="AJ18" s="13"/>
+      <c r="AJ18" s="14"/>
       <c r="AL18" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Precedence_table.xlsx
+++ b/docs/Precedence_table.xlsx
@@ -428,14 +428,14 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.55"/>
   <cols>
-    <col collapsed="false" hidden="false" max="21" min="1" style="1" width="4.78542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="1" style="1" width="4.66396761133603"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="4.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="1" width="4.66396761133603"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,6 +1732,11 @@
       <c r="AJ18" s="14"/>
       <c r="AL18" s="10"/>
     </row>
+    <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+    </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
